--- a/ids.xlsx
+++ b/ids.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassan Laptop Point\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="460">
   <si>
     <t>04846998</t>
   </si>
@@ -361,6 +361,1044 @@
   </si>
   <si>
     <t>07774726</t>
+  </si>
+  <si>
+    <t>ALOPEXY LOES 2% 3 SPR 60 ML</t>
+  </si>
+  <si>
+    <t>ALOPEXY LOES 5% 3 SPR 60 ML</t>
+  </si>
+  <si>
+    <t>AVENE 3-IN-1 REINIGUNGSFLUID 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE A-OXITIVE ANTIOXIDANS-SERUM 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE A-OXITIVE NACHT-CREME 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE A-OXITIVE TUCHMASKE 18 ML</t>
+  </si>
+  <si>
+    <t>AVENE ANTIROUGEURS CALM MASKE FHD 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE ANTIROUGEURS GETOENTE PFLEGE SPF30</t>
+  </si>
+  <si>
+    <t>AVENE ANTIROUGEURS REINIGUNGSMILCH FHD 20</t>
+  </si>
+  <si>
+    <t>AVENE ANTIROUGEURS ROSAMED KONZENTRAT 3</t>
+  </si>
+  <si>
+    <t>AVENE ANTIROUGEURS TAG CREME SPF30 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE ANTIROUGEURS TAG EMULSION SPF30 40</t>
+  </si>
+  <si>
+    <t>AVENE AUGEN MAKEUP ENTFERNER WATERPROO</t>
+  </si>
+  <si>
+    <t>AVENE BERUHIGENDE AUGEN CREME 10 ML</t>
+  </si>
+  <si>
+    <t>AVENE BERUHIGENDE FEUCHTIGKEITSMASKE (50</t>
+  </si>
+  <si>
+    <t>AVENE BERUHIGENDE FEUCHTIGKEITSMASKE 50</t>
+  </si>
+  <si>
+    <t>AVENE BODY BALSAM 250 ML</t>
+  </si>
+  <si>
+    <t>AVENE BODY DEODORANT ROLL-ON 24H (NEU) 50</t>
+  </si>
+  <si>
+    <t>AVENE BODY DEODORANT ROLL-ON 24H 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE BODY DUSCHGEL 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE BODY KOERPERPEELING (NEU) TB 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE BODY KOERPERPEELING 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE HANDCREME 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE LIPPENBALSAM 10 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ AKUTPFLEGE EMULSION TB 40</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ CREME 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ CREME 15 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ CREME 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ MASSAGEGEL 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ REGENEREREND SERUM INTE</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ REINIGUNGSGEL FL 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ REPAIR-LIPPENBALSAM TB 10</t>
+  </si>
+  <si>
+    <t>AVENE CICALFATE+ TROCKNENDER SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE AHA PEELING SERUM TB 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE AQUA-GEL MATTIEREND TOPF</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE COMEDOMED (NEU) DISP 30 M</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE COMEDOMED 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE COMEDOMED LOKALE ANTI-U</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE COMEDOMED PEELING CR TB</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE DETOX MASKE TB 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE HYDRA CREME (NEU) 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE HYDRA REINIGUNGSCREME B</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE MASK PEELING MASKE (50 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE MASK PEELING-MASKE 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE MATTIERENDE EMULSION 3IN1</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE MIZELLENWASSER (NEU) FL 40</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE MIZELLENWASSER (NEU) TB 1</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE REINIGUNGSGEL 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE REINIGUNGSGEL TB 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE REINIGUNGSLOTION 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE SONNE SPF50+ M REINIGUNGS</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE SONNE SPF50+ TB 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE WOMEN NACHTPFLEGE-SCHF</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE WOMEN SERUM SCHF TB 30 M</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE WOMEN SERUM 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE CLEANANCE WOMEN TAGESPFLEGE GETO</t>
+  </si>
+  <si>
+    <t>AVENE COLD CREAM CREME 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE COLD CREAM CREME 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE COLD CREAM INTENSIV-HANDCREME FHD 5</t>
+  </si>
+  <si>
+    <t>AVENE COLD CREAM INTENSIV-HANDCREME TB 50</t>
+  </si>
+  <si>
+    <t>AVENE COLD CREAM NUTRIT LIPPENPFLEGE 4 G</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE AUGENBRAUENSTIFT DUNKEL</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE FLUID BEIGE 2.5 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE FLUID GOLD 5.0 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE FLUID HONIG 4.0 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE FLUID NATURAL 2.0 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE FLUID PORZELLAN 1.0 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE FLUID SAND 3.0 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KAJALSTIFT HIGH DEFINIT NOI</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KOMPAKT CR OELFREI NATUR</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KOMPAKT CR OELFREI PORZE</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KOMPAKT MAKE-UP HONIG 04</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KOMPAKT MAKE-UP NATUREL</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KOMPAKT MAKE-UP PORZELL</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KORR-PINSEL BEIGE NATUR 1</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KORREKTURSTICK GELB 3 G</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KORREKTURSTICK GRUEN 3</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE KORREKTURSTICK KORALLE</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE LIPPENBALSAM SAMTIGES RO</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE LIPPENBALSAM STRAHLENDE</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE LIPPENBALSAM ZARTES NUD</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE MASCARA SCHWARZ HIGH DE</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE MASCARA SCHWARZ HIGH TO</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE MOSAIK PUDER BRONZE DS 1</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE MOSAIK PUDER LUMIERE DS 1</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE MOSAIK PUDER NATUREL DS</t>
+  </si>
+  <si>
+    <t>AVENE COUVRANCE MOSAIK PUDER TRANSPAREN</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU FILLER AUGENPFLEGE TB 15</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU GETOENTE CREME SPF30 40</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU NACHTCREME KONTURSTRA</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU SERUM KONTURSTRAFFEND</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU STAERKENDE TAGESCREME</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU STAERKENDES SERUM 30 M</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU TAGECREME FESTIGEND 50</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU TAGESCREME REFILL TOPF</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU VERJUENGENDE AUGENPFL</t>
+  </si>
+  <si>
+    <t>AVENE DERMABSOLU WOHLTUENDER NACHTBALS</t>
+  </si>
+  <si>
+    <t>AVENE FEUCHTIGKEITSSPEND LIPPENSTIFT 4 G</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 AQUAGEL-CR REFILL</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 AQUAGEL-CREME DS</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 AUGENPFLEGE TB 15</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 CREME FL 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 CREME REFILL 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 NACHTCREME FL 40 M</t>
+  </si>
+  <si>
+    <t>AVENE HYALURON ACTIV B3 SERUM KONZENT TB</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE AQUA GEL-CREME+STIFT GES</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE AQUA GEL-CREME 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE BB LEICHT SPF30 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE BB REICHHALTIG SPF30 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE BOOST SERUM FL 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE CREME +STIFT GESCH 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE CREME -20% 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE CREME 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE CREME 40ML + AQUA GEL GRAT</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE CREME SPF30 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE CREME SPF30+STIFT GESCH 40</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE EMUL SPF30 40ML + AQUA GEL</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE EMULSION 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE EMULSION 40ML + AQUA GEL G</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE EMULSION SPF30 40 ML</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE EMULSION SPF30+STIFT GESC</t>
+  </si>
+  <si>
+    <t>AVENE HYDRANCE FEUCHTIGKEITSPFLEGE EXPRE</t>
+  </si>
+  <si>
+    <t>AVENE INTEN FEUCHTIGKEIT LIPPENBALSAM 10 ML</t>
+  </si>
+  <si>
+    <t>AVENE KIT CICALFATE CREME +PFLASTERBOX 40M</t>
+  </si>
+  <si>
+    <t>AVENE KIT CICALFATE HANDCREME +PFLASTERBO</t>
+  </si>
+  <si>
+    <t>AVENE KIT GESICHTSWASSER 200ML+100ML GRATI</t>
+  </si>
+  <si>
+    <t>AVENE KIT SERENAGE TAGESPFLEGE + BALSAM G</t>
+  </si>
+  <si>
+    <t>AVENE KIT TRIXERA BALSAM 400ML +FLUID 100ML</t>
+  </si>
+  <si>
+    <t>AVENE MEN AFTER SHAVE BALSAM 75 ML</t>
+  </si>
+  <si>
+    <t>AVENE MEN ANTI-AGING PFLEGE 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE MEN RASIERGEL (NEU) 150 ML</t>
+  </si>
+  <si>
+    <t>AVENE MEN RASIERSCHAUM (NEU) 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE MILDER AUGEN MAKE UP ENTFERNER 125</t>
+  </si>
+  <si>
+    <t>AVENE MILDES GESICHTSWASSER 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE MILDES PEELING-GEL TB 75 ML</t>
+  </si>
+  <si>
+    <t>AVENE MIXPACK ETA 150ML+50ML -20%</t>
+  </si>
+  <si>
+    <t>AVENE MIXPACK ETA 300 ML + 50 ML GRATIS DF</t>
+  </si>
+  <si>
+    <t>AVENE MIZELLENGEL FL 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE MIZELLENWASSER FL 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE MIZELLENWASSER FL 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE NUTRITIVE CREME 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE NUTRITIVE CREME REICHHALTIG 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE PHYSIOLIFT TAG STRAFFENDE CREME 30 M</t>
+  </si>
+  <si>
+    <t>AVENE REINIGUNGSMILCH FL 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE REINIGUNGSSCHAUM DISP 150 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN AFTER-SUN REPAIR LOTION DISP 400</t>
+  </si>
+  <si>
+    <t>AVENE SUN AFTER-SUN REPAIR LOTION FL 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN ANTI-AGING SONNE GETOENT SPF50+</t>
+  </si>
+  <si>
+    <t>AVENE SUN BRUME SATINEE SPF30+ SPR 150 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN CLEANANCE SONNE SPF50+ GETOENT</t>
+  </si>
+  <si>
+    <t>AVENE SUN CREME SPF 30 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN INTENSE PROTECT FLUID SPF50+150</t>
+  </si>
+  <si>
+    <t>AVENE SUN KINDERSONNENMILCH SPF 50+ 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN KINDERSONNENMILCH SPF50+ 250 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN KINDERSONNENSPRAY SPF 50+ 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN KOMPAKTSONNENCREME GOLD SPF5</t>
+  </si>
+  <si>
+    <t>AVENE SUN KOMPAKTSONNENCREME SAND SPF50</t>
+  </si>
+  <si>
+    <t>AVENE SUN MILCH SPF 30 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN MINERALISCHE SONNENCREME SPF 5</t>
+  </si>
+  <si>
+    <t>AVENE SUN MINERALISCHE SONNENMILCH SPF 50</t>
+  </si>
+  <si>
+    <t>AVENE SUN REFLEXE SONNE SPF 50+ 30 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN REFLEXE SONNE SPF50+ (30 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SELBSTBRAEUNER 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENCREME GETOENT SPF50+ TB</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENCREME OHNE DUFT SPF50+ T</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENCREME OHNE PARFUM SPF50</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID GETOENT SPF50+ TB 50</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID MINERAL GET SPF50+T</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID MINERALISCH SPF50+ (</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID MINERALISCH SPF50+4</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID OHNE DUFT SPF50+50</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID OHNE PARFUM SPF50+</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID SPF30 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID SPF50+ A 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID SPF50+ TB 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENFLUID SPORT SPF50+ 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENMILCH SPF50+ 100 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENMILCH SPF50+ 250 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENSCHUTZ ANTI-AGING SPF50+5</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENSCHUTZ B-PROTECT SPF50+3</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENSPRAY SPF 30 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENSPRAY SPF50+ 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENSTICK EMPF HAUTAREALE SP</t>
+  </si>
+  <si>
+    <t>AVENE SUN SONNENSTICK LIPPEN SPF50+ 3G</t>
+  </si>
+  <si>
+    <t>AVENE SUN SUNSIMED PIGMENT DISP 80 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SUNSIMED SOLAIRE FDI 80 ML</t>
+  </si>
+  <si>
+    <t>AVENE SUN SUNSISTICK KA SPF50+ 20 G</t>
+  </si>
+  <si>
+    <t>AVENE SUN ULTRA FLUID INVISIBLE SPF50+ FL 50</t>
+  </si>
+  <si>
+    <t>AVENE SUN ULTRA FLUID PERFECTOR SPF50+ FL 5</t>
+  </si>
+  <si>
+    <t>AVENE THERMALWASSER SPR 150 ML</t>
+  </si>
+  <si>
+    <t>AVENE THERMALWASSER SPR 300 ML</t>
+  </si>
+  <si>
+    <t>AVENE THERMALWASSER SPRAY 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE TOLER HYDRA-10 FEUCHTIGKEITSCR TB 40</t>
+  </si>
+  <si>
+    <t>AVENE TOLER HYDRA-10 FEUCHTIGKEITSFLU TB 4</t>
+  </si>
+  <si>
+    <t>AVENE TOLERANCE CONTROL BALSAM BERUHIGE</t>
+  </si>
+  <si>
+    <t>AVENE TOLERANCE CONTROL CREME BERUHIGEN</t>
+  </si>
+  <si>
+    <t>AVENE TOLERANCE CONTROL REINIGUNGSLOT 20</t>
+  </si>
+  <si>
+    <t>AVENE TOLERANCE CREME -5CHF 50 ML</t>
+  </si>
+  <si>
+    <t>AVENE TRIXERA PFLEGEMILCH REICHHALTIG FHD</t>
+  </si>
+  <si>
+    <t>AVENE TRIXERA REICHHA REINIGUNGSFLUID FHD</t>
+  </si>
+  <si>
+    <t>AVENE TRIXERA REICHHALTIGER BALSAM FHD 200</t>
+  </si>
+  <si>
+    <t>AVENE TRIXERA REICHHALTIGER BALSAM FHD 400</t>
+  </si>
+  <si>
+    <t>AVENE TRIXERA RUECKFETT WASCHSTUECK-20%</t>
+  </si>
+  <si>
+    <t>AVENE TRIXERA RUECKFETTEND WASCHSTUECK</t>
+  </si>
+  <si>
+    <t>AVENE VITAMIN ACTIV CG INTENSIV-CREME DS 50</t>
+  </si>
+  <si>
+    <t>AVENE VITAMIN ACTIV CG SERUM-KONZENT TB 30</t>
+  </si>
+  <si>
+    <t>AVENE WASCHSTUECK PEAUX INTOLERANTES 100</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM A.D BALSAM RUECKFETTEND DI</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM A.D BALSAM RUECKFETTEND T</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM A.D KONZENTRAT BERUHIGEND</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM A.D REINIGUNGSOEL RUECKFE</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM BALSAM 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM BALSAM 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM BERUHIGENDES KONZENTRAT</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM CREME 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM CREME 200ML+OEL 100ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM CREME 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM NUTRITION BALSAM TB 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM NUTRITION BALSAM TB 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM NUTRITION DUSCHCREME FL 50</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM NUTRITION DUSCHGEL FL 500 M</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM NUTRITION MILCH TB 200 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM NUTRITION MILCH TB 400 ML</t>
+  </si>
+  <si>
+    <t>AVENE XERACALM REINIGUNGSOEL 400 ML</t>
+  </si>
+  <si>
+    <t>CLARELUX SCHAUM 100 G</t>
+  </si>
+  <si>
+    <t>CURAKNE WEICHKAPS 10 MG 100 STK</t>
+  </si>
+  <si>
+    <t>CURAKNE WEICHKAPS 20 MG 30 STK</t>
+  </si>
+  <si>
+    <t>DEXERYL CREME TB 250 G</t>
+  </si>
+  <si>
+    <t>DEXERYL CREME TB 50 G</t>
+  </si>
+  <si>
+    <t>DUGRAY KELUAL DS BERUHIGENDE CREME TB 40</t>
+  </si>
+  <si>
+    <t>DUCRAY KERTYOL PSO SHAMPOO TB 200 ML</t>
+  </si>
+  <si>
+    <t>DUCRAY NEOPTIDE EXPERT SERUM HAARAUSF 2F</t>
+  </si>
+  <si>
+    <t>ELGYDIUM CLASSIC ZAHNBUERSTE ERWACHSENE</t>
+  </si>
+  <si>
+    <t>FURTERER 5 SENS LUXURIOESER BALSAM 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER 5 SENS LUXURIOESES SHAMPOO 200 M</t>
+  </si>
+  <si>
+    <t>FURTERER 5 SENS LUXURIOESES SHAMPOO 250 M</t>
+  </si>
+  <si>
+    <t>FURTERER 5 SENS LUXURIOESES TROCKENOEL 10</t>
+  </si>
+  <si>
+    <t>FURTERER ABSOLUE KERATINE MASKE (200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ABSOLUE KERATINE MASKE (NEU) TB 1</t>
+  </si>
+  <si>
+    <t>FURTERER ABSOLUE KERATINE MASKE 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ABSOLUE KERATINE PFLEGE 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ABSOLUE KERATINE SERUM TB 30 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ABSOLUE KERATINE SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ANTICHUTE TRIPHASIC ATP INTENS AM</t>
+  </si>
+  <si>
+    <t>FURTERER ASTERA FRESH KONZENTRAT (50 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ASTERA FRESH SERUM (NEU) 75 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ASTERA FRESH SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ASTERA FRESH SHAMPOO FL 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ASTERA SENSITIVE SERUM 75 ML</t>
+  </si>
+  <si>
+    <t>FURTERER ASTERA SENSITIVE SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER COLOR GLOW CREME TB 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER COLOR GLOW MASKE TOPF 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER COLOR GLOW SHAMPOO TB 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER COMPLEXE 5 KONZENTRAT FL 50 ML</t>
+  </si>
+  <si>
+    <t>FURTERER CURBICIA SHAMPOO-MASKE (NEU) 100</t>
+  </si>
+  <si>
+    <t>FURTERER FORTICEA VITALISIER SHAMPOO TB 20</t>
+  </si>
+  <si>
+    <t>FURTERER FORTICEA VITALISIERENDE LOTION 100</t>
+  </si>
+  <si>
+    <t>FURTERER FORTICEA VITALISIERENDES SHAMPO</t>
+  </si>
+  <si>
+    <t>FURTERER HEAD SPA ASTERA KONZENTRAT 50 ML</t>
+  </si>
+  <si>
+    <t>FURTERER KARITE AUFBAUENDES KONZENTRAT 1</t>
+  </si>
+  <si>
+    <t>FURTERER KARITE NACHT-HAARPFLEGE 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER KARITE NAEHRENDE HAARMASKE 100</t>
+  </si>
+  <si>
+    <t>FURTERER KARITE NAEHRENDES SHAMPOO 150 M</t>
+  </si>
+  <si>
+    <t>FURTERER KARITE NUTRI NACHTPFLEGE 75 ML</t>
+  </si>
+  <si>
+    <t>FURTERER KARITE NUTRI NAEHRENDES HAAROEL</t>
+  </si>
+  <si>
+    <t>FURTERER LISSEA GLAETTENDER BALSAM 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER NATURIA BALSAM BIO 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER NATURIA SHAMPOO BIO 400 ML</t>
+  </si>
+  <si>
+    <t>FURTERER NATURIA SHAMPOO BIO REFILL 400 ML</t>
+  </si>
+  <si>
+    <t>FURTERER NATURIA SPRAY BIO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER NATURIA TROCKENSHAMPOO (NEU) 20</t>
+  </si>
+  <si>
+    <t>FURTERER NEOPUR SHAMPOO FETTIGE SCHUPPE</t>
+  </si>
+  <si>
+    <t>FURTERER NEOPUR SHAMPOO TROCKENE SCHUP</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA AL SERUM 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA BLOND BALSAM 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA BLOND SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA BLOND SPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA COLOR BALSAM 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA COLOR MASKE 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA COLOR SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA COLOR SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA COLOR SPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA SILVER BALSAM 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA SILVER SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER OKARA SILVER SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SOLAIRE NAEHRENDES SHAMPOO 200</t>
+  </si>
+  <si>
+    <t>FURTERER SOLAIRE SCHUETZENDES SOMMERFLU</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE FIXIERSPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE HAARGEL TB 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE HAARLACK 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE HAARLACK 300 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE HAARSCHAUM 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE HITZESCHUTZSPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE MODELLIERPASTE 75 ML</t>
+  </si>
+  <si>
+    <t>FURTERER STYLE TEXTUR HAARSPRAY 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME CURL BALSAM 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME CURL CREME 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME CURL SHAMPOO (NEU) 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME CURL SHAMPOO TB 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME CURL SPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE CREME 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE FEUCHT MASKE 100 M</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE FEUCHT MASKE 200 M</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE NAEHR MASKE 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE NAEHR MASKE 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE PFLEGEMILCH 100 ML</t>
+  </si>
+  <si>
+    <t>FURTERER SUBLIME KARITE SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER TONUCIA MASKE (NEU) 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER TONUCIA SERUM 75 ML</t>
+  </si>
+  <si>
+    <t>FURTERER TONUCIA SERUM 8 X 8 ML</t>
+  </si>
+  <si>
+    <t>FURTERER TONUCIA SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>FURTERER TONUCIA SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER TRIPHASIC PROGRESS KUR BUERSTE 8</t>
+  </si>
+  <si>
+    <t>FURTERER TRIPHASIC PROGRESSIVE KUR PRO 8 X</t>
+  </si>
+  <si>
+    <t>FURTERER TRIPHASIC REACTION KUR BUERSTE 1</t>
+  </si>
+  <si>
+    <t>FURTERER TRIPHASIC REACTIONAL KUR 12 AMP 5</t>
+  </si>
+  <si>
+    <t>FURTERER TRIPHASIC SHAMPOO TB 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER VOLUMEA KRAEFTIGENDER SCHAUM 2</t>
+  </si>
+  <si>
+    <t>FURTERER VOLUMEA SHAMPOO (NEU) 250 ML</t>
+  </si>
+  <si>
+    <t>FURTERER VOLUMEA VOLUMEN PFLEGESPUELUN</t>
+  </si>
+  <si>
+    <t>FURTERER VOLUMEA VOLUMEN SPR 125 ML</t>
+  </si>
+  <si>
+    <t>FURTERER VOLUMEA VOLUMEN-SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>HEMANGIOL LOES 3.75 MG/ML FL 120 ML</t>
+  </si>
+  <si>
+    <t>KLORANE BLEUET ABSCHMINKTUECHER ABBAUBA</t>
+  </si>
+  <si>
+    <t>KLORANE ENTHAARUNGSSTREIFEN BEINE 2 X 6 ST</t>
+  </si>
+  <si>
+    <t>KLORANE ENTHAARUNGSSTREIFEN GESICHT 6X2</t>
+  </si>
+  <si>
+    <t>KLORANE GRANATAPFEL PFLEGESPUELUNG 200 M</t>
+  </si>
+  <si>
+    <t>KLORANE HAFER BIO SHAMPOO TB 200 ML</t>
+  </si>
+  <si>
+    <t>KLORANE KAMILLEN SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>KLORANE MAGNOLIENWACHS GLANZSPRAY 100 M</t>
+  </si>
+  <si>
+    <t>KLORANE MANGO HAARMASKE 150 ML</t>
+  </si>
+  <si>
+    <t>KLORANE MANGO HAARTAGESCREME 125 ML</t>
+  </si>
+  <si>
+    <t>KLORANE PAPYRUSMILCH HAARMASKE 150 ML</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO BRENNNESS (NEU)</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO BRENNNESS PROM</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO BRENNNESSEL GET</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO BRENNNESSEL SPR</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO DETOX WASSERMIN</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO HAFERMILCH (N) 15</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO HAFERMILCH GET (</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO HAFERMILCH GET 1</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO HAFERMILCH PUDE</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO HAFERMILCH SPR 1</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO HAFERMILCH SPR 5</t>
+  </si>
+  <si>
+    <t>KLORANE TROCKENSHAMPOO LEINEN SPR 150 ML</t>
+  </si>
+  <si>
+    <t>MYCOSTER CREME 10 MG/G (NEU) TB 30 G</t>
   </si>
 </sst>
 </file>
@@ -445,7 +1483,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -457,6 +1495,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,18 +1812,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -784,8 +1833,11 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -795,8 +1847,11 @@
       <c r="C3" s="4">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -806,8 +1861,11 @@
       <c r="C4" s="4">
         <v>68.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -817,8 +1875,11 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -828,8 +1889,11 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -839,8 +1903,11 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -850,8 +1917,11 @@
       <c r="C8" s="4">
         <v>164.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -861,8 +1931,11 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -872,8 +1945,11 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -883,8 +1959,11 @@
       <c r="C11" s="4">
         <v>362.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -894,8 +1973,11 @@
       <c r="C12" s="4">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -905,8 +1987,11 @@
       <c r="C13" s="4">
         <v>127.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -916,8 +2001,11 @@
       <c r="C14" s="4">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -927,8 +2015,11 @@
       <c r="C15" s="4">
         <v>262.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -938,8 +2029,11 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -949,8 +2043,11 @@
       <c r="C17" s="4">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -960,8 +2057,11 @@
       <c r="C18" s="4">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -971,8 +2071,11 @@
       <c r="C19" s="4">
         <v>99.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -982,8 +2085,11 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -993,8 +2099,11 @@
       <c r="C21" s="4">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1004,8 +2113,11 @@
       <c r="C22" s="4">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1015,8 +2127,11 @@
       <c r="C23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1026,8 +2141,11 @@
       <c r="C24" s="4">
         <v>139.30000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1037,8 +2155,11 @@
       <c r="C25" s="4">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1048,8 +2169,11 @@
       <c r="C26" s="4">
         <v>132.30000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1059,8 +2183,11 @@
       <c r="C27" s="4">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1070,8 +2197,11 @@
       <c r="C28" s="4">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1081,8 +2211,11 @@
       <c r="C29" s="4">
         <v>143.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1092,8 +2225,11 @@
       <c r="C30" s="4">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1103,8 +2239,11 @@
       <c r="C31" s="4">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1114,8 +2253,11 @@
       <c r="C32" s="4">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1125,8 +2267,11 @@
       <c r="C33" s="4">
         <v>111.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1136,8 +2281,11 @@
       <c r="C34" s="4">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1147,8 +2295,11 @@
       <c r="C35" s="4">
         <v>188</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -1158,8 +2309,11 @@
       <c r="C36" s="4">
         <v>223.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1169,8 +2323,11 @@
       <c r="C37" s="4">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1180,8 +2337,11 @@
       <c r="C38" s="4">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1191,8 +2351,11 @@
       <c r="C39" s="4">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1202,8 +2365,11 @@
       <c r="C40" s="4">
         <v>314.10000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1213,8 +2379,11 @@
       <c r="C41" s="4">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -1224,8 +2393,11 @@
       <c r="C42" s="4">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -1235,8 +2407,11 @@
       <c r="C43" s="4">
         <v>179.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -1246,8 +2421,11 @@
       <c r="C44" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1257,8 +2435,11 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1268,8 +2449,11 @@
       <c r="C46" s="4">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -1279,8 +2463,11 @@
       <c r="C47" s="4">
         <v>284.89999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -1290,8 +2477,11 @@
       <c r="C48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -1301,8 +2491,11 @@
       <c r="C49" s="4">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -1312,8 +2505,11 @@
       <c r="C50" s="4">
         <v>119.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -1323,8 +2519,11 @@
       <c r="C51" s="4">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -1334,8 +2533,11 @@
       <c r="C52" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -1345,8 +2547,11 @@
       <c r="C53" s="4">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -1356,8 +2561,11 @@
       <c r="C54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -1367,8 +2575,11 @@
       <c r="C55" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -1378,8 +2589,11 @@
       <c r="C56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
@@ -1389,8 +2603,11 @@
       <c r="C57" s="5">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>56</v>
       </c>
@@ -1400,8 +2617,11 @@
       <c r="C58" s="5">
         <v>153.30000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -1411,8 +2631,11 @@
       <c r="C59" s="5">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>58</v>
       </c>
@@ -1422,8 +2645,11 @@
       <c r="C60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>59</v>
       </c>
@@ -1433,8 +2659,11 @@
       <c r="C61" s="5">
         <v>97.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -1444,8 +2673,11 @@
       <c r="C62" s="5">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>61</v>
       </c>
@@ -1455,8 +2687,11 @@
       <c r="C63" s="5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
@@ -1466,8 +2701,11 @@
       <c r="C64" s="5">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>63</v>
       </c>
@@ -1477,8 +2715,11 @@
       <c r="C65" s="5">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -1488,8 +2729,11 @@
       <c r="C66" s="5">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -1499,8 +2743,11 @@
       <c r="C67" s="5">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -1510,8 +2757,11 @@
       <c r="C68" s="5">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>67</v>
       </c>
@@ -1521,8 +2771,11 @@
       <c r="C69" s="5">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>68</v>
       </c>
@@ -1532,8 +2785,11 @@
       <c r="C70" s="5">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>69</v>
       </c>
@@ -1543,8 +2799,11 @@
       <c r="C71" s="5">
         <v>105</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
@@ -1554,8 +2813,11 @@
       <c r="C72" s="5">
         <v>105</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
@@ -1565,8 +2827,11 @@
       <c r="C73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
@@ -1576,8 +2841,11 @@
       <c r="C74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -1587,8 +2855,11 @@
       <c r="C75" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
@@ -1598,8 +2869,11 @@
       <c r="C76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -1609,8 +2883,11 @@
       <c r="C77" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
@@ -1620,8 +2897,11 @@
       <c r="C78" s="5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
@@ -1631,8 +2911,11 @@
       <c r="C79" s="5">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -1642,8 +2925,11 @@
       <c r="C80" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
@@ -1653,8 +2939,11 @@
       <c r="C81" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>80</v>
       </c>
@@ -1664,8 +2953,11 @@
       <c r="C82" s="5">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>81</v>
       </c>
@@ -1675,8 +2967,11 @@
       <c r="C83" s="5">
         <v>119.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
@@ -1686,8 +2981,11 @@
       <c r="C84" s="5">
         <v>149.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
@@ -1697,8 +2995,11 @@
       <c r="C85" s="5">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
@@ -1708,8 +3009,11 @@
       <c r="C86" s="5">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
@@ -1719,8 +3023,11 @@
       <c r="C87" s="5">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
@@ -1730,8 +3037,11 @@
       <c r="C88" s="5">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>87</v>
       </c>
@@ -1741,8 +3051,11 @@
       <c r="C89" s="5">
         <v>359.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>88</v>
       </c>
@@ -1752,8 +3065,11 @@
       <c r="C90" s="5">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
@@ -1763,8 +3079,11 @@
       <c r="C91" s="5">
         <v>370.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
@@ -1774,8 +3093,11 @@
       <c r="C92" s="5">
         <v>485.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
@@ -1785,8 +3107,11 @@
       <c r="C93" s="5">
         <v>149.69999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
@@ -1796,8 +3121,11 @@
       <c r="C94" s="5">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
@@ -1807,8 +3135,11 @@
       <c r="C95" s="5">
         <v>458.1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
@@ -1818,8 +3149,11 @@
       <c r="C96" s="5">
         <v>134.69999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
@@ -1829,8 +3163,11 @@
       <c r="C97" s="5">
         <v>614.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
@@ -1840,8 +3177,11 @@
       <c r="C98" s="5">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
@@ -1851,8 +3191,11 @@
       <c r="C99" s="5">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
@@ -1862,8 +3205,11 @@
       <c r="C100" s="5">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
@@ -1873,8 +3219,11 @@
       <c r="C101" s="5">
         <v>234.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>100</v>
       </c>
@@ -1884,8 +3233,11 @@
       <c r="C102" s="5">
         <v>239.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>101</v>
       </c>
@@ -1895,8 +3247,11 @@
       <c r="C103" s="5">
         <v>281.39999999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>102</v>
       </c>
@@ -1906,8 +3261,11 @@
       <c r="C104" s="5">
         <v>125.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -1917,8 +3275,11 @@
       <c r="C105" s="5">
         <v>449.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -1928,8 +3289,11 @@
       <c r="C106" s="5">
         <v>449.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
@@ -1939,8 +3303,11 @@
       <c r="C107" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>106</v>
       </c>
@@ -1950,8 +3317,11 @@
       <c r="C108" s="5">
         <v>446.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>107</v>
       </c>
@@ -1961,8 +3331,11 @@
       <c r="C109" s="5">
         <v>119.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>108</v>
       </c>
@@ -1972,8 +3345,11 @@
       <c r="C110" s="5">
         <v>119.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>109</v>
       </c>
@@ -1983,8 +3359,11 @@
       <c r="C111" s="5">
         <v>558.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -1994,8 +3373,11 @@
       <c r="C112" s="5">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>111</v>
       </c>
@@ -2005,8 +3387,11 @@
       <c r="C113" s="5">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>112</v>
       </c>
@@ -2016,8 +3401,11 @@
       <c r="C114" s="5">
         <v>635.79999999999995</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>113</v>
       </c>
@@ -2027,8 +3415,11 @@
       <c r="C115" s="5">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>7740332</v>
       </c>
@@ -2038,8 +3429,11 @@
       <c r="C116" s="5">
         <v>299</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>7825290</v>
       </c>
@@ -2049,8 +3443,11 @@
       <c r="C117" s="5">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>7774729</v>
       </c>
@@ -2060,8 +3457,11 @@
       <c r="C118" s="5">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>7740331</v>
       </c>
@@ -2071,8 +3471,11 @@
       <c r="C119" s="5">
         <v>375.7</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>7774727</v>
       </c>
@@ -2082,8 +3485,11 @@
       <c r="C120" s="5">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>7740333</v>
       </c>
@@ -2093,8 +3499,11 @@
       <c r="C121" s="5">
         <v>448.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>7825291</v>
       </c>
@@ -2104,8 +3513,11 @@
       <c r="C122" s="5">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>7795329</v>
       </c>
@@ -2115,8 +3527,11 @@
       <c r="C123" s="5">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>7814583</v>
       </c>
@@ -2126,8 +3541,11 @@
       <c r="C124" s="5">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>7736365</v>
       </c>
@@ -2137,8 +3555,11 @@
       <c r="C125" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>7736339</v>
       </c>
@@ -2148,8 +3569,11 @@
       <c r="C126" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>7736361</v>
       </c>
@@ -2159,8 +3583,11 @@
       <c r="C127" s="5">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>7390441</v>
       </c>
@@ -2170,8 +3597,11 @@
       <c r="C128" s="5">
         <v>610</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>7683752</v>
       </c>
@@ -2181,8 +3611,11 @@
       <c r="C129" s="5">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2185073</v>
       </c>
@@ -2192,8 +3625,11 @@
       <c r="C130" s="5">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>6301903</v>
       </c>
@@ -2203,8 +3639,11 @@
       <c r="C131" s="5">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>7825301</v>
       </c>
@@ -2214,8 +3653,11 @@
       <c r="C132" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>7825300</v>
       </c>
@@ -2225,8 +3667,11 @@
       <c r="C133" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2964392</v>
       </c>
@@ -2236,8 +3681,11 @@
       <c r="C134" s="5">
         <v>139.30000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>7853676</v>
       </c>
@@ -2247,8 +3695,11 @@
       <c r="C135" s="5">
         <v>160.30000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>7825735</v>
       </c>
@@ -2258,8 +3709,11 @@
       <c r="C136" s="5">
         <v>99.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>7795334</v>
       </c>
@@ -2269,8 +3723,11 @@
       <c r="C137" s="5">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>7390398</v>
       </c>
@@ -2280,8 +3737,11 @@
       <c r="C138" s="5">
         <v>780</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>7851102</v>
       </c>
@@ -2291,8 +3751,11 @@
       <c r="C139" s="5">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7851099</v>
       </c>
@@ -2302,8 +3765,11 @@
       <c r="C140" s="5">
         <v>314.39999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>7851116</v>
       </c>
@@ -2313,8 +3779,11 @@
       <c r="C141" s="5">
         <v>197.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>7736347</v>
       </c>
@@ -2324,8 +3793,11 @@
       <c r="C142" s="5">
         <v>215.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>7736348</v>
       </c>
@@ -2335,8 +3807,11 @@
       <c r="C143" s="5">
         <v>323.10000000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>6440792</v>
       </c>
@@ -2346,8 +3821,11 @@
       <c r="C144" s="5">
         <v>97.8</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>7851100</v>
       </c>
@@ -2357,8 +3835,11 @@
       <c r="C145" s="5">
         <v>132.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>7851101</v>
       </c>
@@ -2368,8 +3849,11 @@
       <c r="C146" s="5">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>7851119</v>
       </c>
@@ -2379,8 +3863,11 @@
       <c r="C147" s="5">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>7851110</v>
       </c>
@@ -2390,8 +3877,11 @@
       <c r="C148" s="5">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>7751740</v>
       </c>
@@ -2401,8 +3891,11 @@
       <c r="C149" s="5">
         <v>164.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>7250361</v>
       </c>
@@ -2412,8 +3905,11 @@
       <c r="C150" s="5">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7849687</v>
       </c>
@@ -2423,8 +3919,11 @@
       <c r="C151" s="5">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>4000126</v>
       </c>
@@ -2434,8 +3933,11 @@
       <c r="C152" s="5">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>7784367</v>
       </c>
@@ -2445,8 +3947,11 @@
       <c r="C153" s="5">
         <v>197.4</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>5740888</v>
       </c>
@@ -2456,8 +3961,11 @@
       <c r="C154" s="5">
         <v>230.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>7574980</v>
       </c>
@@ -2467,8 +3975,11 @@
       <c r="C155" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>7574974</v>
       </c>
@@ -2478,8 +3989,11 @@
       <c r="C156" s="6">
         <v>848.7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>6710145</v>
       </c>
@@ -2489,8 +4003,11 @@
       <c r="C157" s="6">
         <v>174.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>6710139</v>
       </c>
@@ -2500,8 +4017,11 @@
       <c r="C158" s="6">
         <v>279.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>4000095</v>
       </c>
@@ -2511,8 +4031,11 @@
       <c r="C159" s="6">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>2778554</v>
       </c>
@@ -2522,8 +4045,11 @@
       <c r="C160" s="6">
         <v>149.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>2952549</v>
       </c>
@@ -2533,8 +4059,11 @@
       <c r="C161" s="6">
         <v>131.6</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>7851109</v>
       </c>
@@ -2544,8 +4073,11 @@
       <c r="C162" s="6">
         <v>53.7</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>7232110</v>
       </c>
@@ -2555,8 +4087,11 @@
       <c r="C163" s="6">
         <v>66</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2778732</v>
       </c>
@@ -2566,8 +4101,11 @@
       <c r="C164" s="6">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>7815203</v>
       </c>
@@ -2577,8 +4115,11 @@
       <c r="C165" s="6">
         <v>119.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>7815202</v>
       </c>
@@ -2588,8 +4129,11 @@
       <c r="C166" s="6">
         <v>149.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>7232050</v>
       </c>
@@ -2599,8 +4143,11 @@
       <c r="C167" s="6">
         <v>144</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>7815206</v>
       </c>
@@ -2610,8 +4157,11 @@
       <c r="C168" s="6">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1019983</v>
       </c>
@@ -2621,8 +4171,11 @@
       <c r="C169" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>1035129</v>
       </c>
@@ -2632,8 +4185,11 @@
       <c r="C170" s="6">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>6824966</v>
       </c>
@@ -2643,8 +4199,11 @@
       <c r="C171" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>7815205</v>
       </c>
@@ -2654,8 +4213,11 @@
       <c r="C172" s="6">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>7232096</v>
       </c>
@@ -2665,8 +4227,11 @@
       <c r="C173" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>7752667</v>
       </c>
@@ -2676,8 +4241,11 @@
       <c r="C174" s="6">
         <v>69</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>7232073</v>
       </c>
@@ -2687,8 +4255,11 @@
       <c r="C175" s="5">
         <v>216</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>7815204</v>
       </c>
@@ -2698,8 +4269,11 @@
       <c r="C176" s="5">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>7574997</v>
       </c>
@@ -2709,8 +4283,11 @@
       <c r="C177" s="5">
         <v>239.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>7574951</v>
       </c>
@@ -2720,8 +4297,11 @@
       <c r="C178" s="5">
         <v>115.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>7575212</v>
       </c>
@@ -2731,8 +4311,11 @@
       <c r="C179" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6824943</v>
       </c>
@@ -2742,8 +4325,11 @@
       <c r="C180" s="5">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>7575005</v>
       </c>
@@ -2753,8 +4339,11 @@
       <c r="C181" s="5">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>5738495</v>
       </c>
@@ -2764,8 +4353,11 @@
       <c r="C182" s="5">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>7574968</v>
       </c>
@@ -2775,8 +4367,11 @@
       <c r="C183" s="5">
         <v>295.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>7751350</v>
       </c>
@@ -2786,8 +4381,11 @@
       <c r="C184" s="5">
         <v>179.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>7751351</v>
       </c>
@@ -2797,8 +4395,11 @@
       <c r="C185" s="5">
         <v>83.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>1045043</v>
       </c>
@@ -2808,8 +4409,11 @@
       <c r="C186" s="5">
         <v>199.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>6824995</v>
       </c>
@@ -2819,8 +4423,11 @@
       <c r="C187" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>7784368</v>
       </c>
@@ -2830,8 +4437,11 @@
       <c r="C188" s="5">
         <v>77.7</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>1045044</v>
       </c>
@@ -2841,8 +4451,11 @@
       <c r="C189" s="5">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1045045</v>
       </c>
@@ -2852,8 +4465,11 @@
       <c r="C190" s="5">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>1726147</v>
       </c>
@@ -2863,8 +4479,11 @@
       <c r="C191" s="5">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2202239</v>
       </c>
@@ -2874,8 +4493,11 @@
       <c r="C192" s="5">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>6018449</v>
       </c>
@@ -2885,8 +4507,11 @@
       <c r="C193" s="5">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>7838316</v>
       </c>
@@ -2896,8 +4521,11 @@
       <c r="C194" s="5">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>7838317</v>
       </c>
@@ -2907,8 +4535,11 @@
       <c r="C195" s="5">
         <v>127.6</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>7795337</v>
       </c>
@@ -2918,8 +4549,11 @@
       <c r="C196" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>7795336</v>
       </c>
@@ -2929,8 +4563,11 @@
       <c r="C197" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>7795335</v>
       </c>
@@ -2940,8 +4577,11 @@
       <c r="C198" s="5">
         <v>129.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>7276610</v>
       </c>
@@ -2951,8 +4591,11 @@
       <c r="C199" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6767748</v>
       </c>
@@ -2962,8 +4605,11 @@
       <c r="C200" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>6767754</v>
       </c>
@@ -2973,8 +4619,11 @@
       <c r="C201" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>6767731</v>
       </c>
@@ -2984,8 +4633,11 @@
       <c r="C202" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>6767777</v>
       </c>
@@ -2995,8 +4647,11 @@
       <c r="C203" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>6767783</v>
       </c>
@@ -3006,8 +4661,11 @@
       <c r="C204" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>7788492</v>
       </c>
@@ -3017,8 +4675,11 @@
       <c r="C205" s="5">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>7342979</v>
       </c>
@@ -3028,8 +4689,11 @@
       <c r="C206" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>1048981</v>
       </c>
@@ -3039,8 +4703,11 @@
       <c r="C207" s="5">
         <v>367.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>1048980</v>
       </c>
@@ -3050,8 +4717,11 @@
       <c r="C208" s="5">
         <v>599</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>5988660</v>
       </c>
@@ -3061,8 +4731,11 @@
       <c r="C209" s="5">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>1034705</v>
       </c>
@@ -3072,8 +4745,11 @@
       <c r="C210" s="5">
         <v>131.6</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>1034702</v>
       </c>
@@ -3083,8 +4759,11 @@
       <c r="C211" s="5">
         <v>161.4</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>1034704</v>
       </c>
@@ -3094,8 +4773,11 @@
       <c r="C212" s="5">
         <v>91.6</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>7814580</v>
       </c>
@@ -3105,8 +4787,11 @@
       <c r="C213" s="5">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5733262</v>
       </c>
@@ -3116,8 +4801,11 @@
       <c r="C214" s="5">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>7582146</v>
       </c>
@@ -3127,8 +4815,11 @@
       <c r="C215" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>7754973</v>
       </c>
@@ -3138,8 +4829,11 @@
       <c r="C216" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>5733256</v>
       </c>
@@ -3149,8 +4843,11 @@
       <c r="C217" s="5">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>7582034</v>
       </c>
@@ -3160,8 +4857,11 @@
       <c r="C218" s="5">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>7582123</v>
       </c>
@@ -3171,8 +4871,11 @@
       <c r="C219" s="5">
         <v>131.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1031967</v>
       </c>
@@ -3182,8 +4885,11 @@
       <c r="C220" s="5">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1031973</v>
       </c>
@@ -3193,8 +4899,11 @@
       <c r="C221" s="5">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1031965</v>
       </c>
@@ -3204,8 +4913,11 @@
       <c r="C222" s="5">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>1031966</v>
       </c>
@@ -3215,8 +4927,11 @@
       <c r="C223" s="5">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1031968</v>
       </c>
@@ -3226,8 +4941,11 @@
       <c r="C224" s="5">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>1031974</v>
       </c>
@@ -3237,8 +4955,11 @@
       <c r="C225" s="5">
         <v>216.3</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>5733279</v>
       </c>
@@ -3248,8 +4969,11 @@
       <c r="C226" s="5">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>4824152</v>
       </c>
@@ -3259,8 +4983,11 @@
       <c r="C227" s="5">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>2965428</v>
       </c>
@@ -3270,8 +4997,11 @@
       <c r="C228" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2965434</v>
       </c>
@@ -3281,8 +5011,11 @@
       <c r="C229" s="5">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>4824206</v>
       </c>
@@ -3292,8 +5025,11 @@
       <c r="C230" s="5">
         <v>200.7</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4824198</v>
       </c>
@@ -3303,8 +5039,11 @@
       <c r="C231" s="5">
         <v>92</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1108091</v>
       </c>
@@ -3314,8 +5053,11 @@
       <c r="C232" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1003898</v>
       </c>
@@ -3325,8 +5067,11 @@
       <c r="C233" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1003887</v>
       </c>
@@ -3336,8 +5081,11 @@
       <c r="C234" s="5">
         <v>86.76</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>777148</v>
       </c>
@@ -3347,8 +5095,11 @@
       <c r="C235" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>7058043</v>
       </c>
@@ -3358,8 +5109,11 @@
       <c r="C236" s="5">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7058037</v>
       </c>
@@ -3369,8 +5123,11 @@
       <c r="C237" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>7390470</v>
       </c>
@@ -3380,8 +5137,11 @@
       <c r="C238" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>6374670</v>
       </c>
@@ -3391,8 +5151,11 @@
       <c r="C239" s="5">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>7743952</v>
       </c>
@@ -3402,8 +5165,11 @@
       <c r="C240" s="5">
         <v>145.80000000000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>7809428</v>
       </c>
@@ -3413,8 +5179,11 @@
       <c r="C241" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>7816062</v>
       </c>
@@ -3424,8 +5193,11 @@
       <c r="C242" s="5">
         <v>113.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>7816061</v>
       </c>
@@ -3435,8 +5207,11 @@
       <c r="C243" s="5">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>7809429</v>
       </c>
@@ -3446,8 +5221,11 @@
       <c r="C244" s="5">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>7816060</v>
       </c>
@@ -3457,8 +5235,11 @@
       <c r="C245" s="5">
         <v>91.6</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>3677789</v>
       </c>
@@ -3468,8 +5249,11 @@
       <c r="C246" s="5">
         <v>516</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>7754982</v>
       </c>
@@ -3479,8 +5263,11 @@
       <c r="C247" s="5">
         <v>183.6</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>7755158</v>
       </c>
@@ -3490,8 +5277,11 @@
       <c r="C248" s="5">
         <v>86.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>7833808</v>
       </c>
@@ -3501,8 +5291,11 @@
       <c r="C249" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>7820311</v>
       </c>
@@ -3512,8 +5305,11 @@
       <c r="C250" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>7754983</v>
       </c>
@@ -3523,8 +5319,11 @@
       <c r="C251" s="5">
         <v>144.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>7795353</v>
       </c>
@@ -3534,8 +5333,11 @@
       <c r="C252" s="5">
         <v>104.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>1038801</v>
       </c>
@@ -3545,8 +5347,11 @@
       <c r="C253" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>1038800</v>
       </c>
@@ -3556,8 +5361,11 @@
       <c r="C254" s="5">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>1038799</v>
       </c>
@@ -3567,8 +5375,11 @@
       <c r="C255" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>7815108</v>
       </c>
@@ -3578,8 +5389,11 @@
       <c r="C256" s="5">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5108564</v>
       </c>
@@ -3589,8 +5403,11 @@
       <c r="C257" s="5">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>1038790</v>
       </c>
@@ -3600,8 +5417,11 @@
       <c r="C258" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>7276432</v>
       </c>
@@ -3611,8 +5431,11 @@
       <c r="C259" s="5">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>7276426</v>
       </c>
@@ -3622,8 +5445,11 @@
       <c r="C260" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>7575206</v>
       </c>
@@ -3633,8 +5459,11 @@
       <c r="C261" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>1008630</v>
       </c>
@@ -3644,8 +5473,11 @@
       <c r="C262" s="5">
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>5314714</v>
       </c>
@@ -3655,8 +5487,11 @@
       <c r="C263" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>5635944</v>
       </c>
@@ -3666,8 +5501,11 @@
       <c r="C264" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3677625</v>
       </c>
@@ -3677,8 +5515,11 @@
       <c r="C265" s="5">
         <v>121.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>3677631</v>
       </c>
@@ -3688,8 +5529,11 @@
       <c r="C266" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>7125928</v>
       </c>
@@ -3699,8 +5543,11 @@
       <c r="C267" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>7125874</v>
       </c>
@@ -3710,8 +5557,11 @@
       <c r="C268" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>5361286</v>
       </c>
@@ -3721,8 +5571,11 @@
       <c r="C269" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>7833794</v>
       </c>
@@ -3732,8 +5585,11 @@
       <c r="C270" s="5">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>7833792</v>
       </c>
@@ -3743,8 +5599,11 @@
       <c r="C271" s="5">
         <v>74.7</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>7833796</v>
       </c>
@@ -3754,8 +5613,11 @@
       <c r="C272" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>7833795</v>
       </c>
@@ -3765,8 +5627,11 @@
       <c r="C273" s="5">
         <v>136.6</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>7833793</v>
       </c>
@@ -3776,8 +5641,11 @@
       <c r="C274" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="14" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>7819236</v>
       </c>
@@ -3787,8 +5655,11 @@
       <c r="C275" s="5">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>7819235</v>
       </c>
@@ -3798,8 +5669,11 @@
       <c r="C276" s="5">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>5142532</v>
       </c>
@@ -3809,8 +5683,11 @@
       <c r="C277" s="5">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>7456878</v>
       </c>
@@ -3820,8 +5697,11 @@
       <c r="C278" s="5">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>7456861</v>
       </c>
@@ -3831,8 +5711,11 @@
       <c r="C279" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>7456884</v>
       </c>
@@ -3842,8 +5725,11 @@
       <c r="C280" s="5">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7456849</v>
       </c>
@@ -3853,8 +5739,11 @@
       <c r="C281" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>7736224</v>
       </c>
@@ -3864,8 +5753,11 @@
       <c r="C282" s="5">
         <v>145.5</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>7456832</v>
       </c>
@@ -3875,8 +5767,11 @@
       <c r="C283" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>7736222</v>
       </c>
@@ -3886,8 +5781,11 @@
       <c r="C284" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>7456855</v>
       </c>
@@ -3897,8 +5795,11 @@
       <c r="C285" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>7456909</v>
       </c>
@@ -3908,8 +5809,11 @@
       <c r="C286" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>7456890</v>
       </c>
@@ -3919,8 +5823,11 @@
       <c r="C287" s="5">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>7736223</v>
       </c>
@@ -3930,8 +5837,11 @@
       <c r="C288" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>6244097</v>
       </c>
@@ -3941,8 +5851,11 @@
       <c r="C289" s="5">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>6243991</v>
       </c>
@@ -3952,8 +5865,11 @@
       <c r="C290" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>7746938</v>
       </c>
@@ -3963,8 +5879,11 @@
       <c r="C291" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>7815123</v>
       </c>
@@ -3974,8 +5893,11 @@
       <c r="C292" s="5">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>7746943</v>
       </c>
@@ -3985,8 +5907,11 @@
       <c r="C293" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>7746936</v>
       </c>
@@ -3996,8 +5921,11 @@
       <c r="C294" s="5">
         <v>68.7</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>7746937</v>
       </c>
@@ -4007,8 +5935,11 @@
       <c r="C295" s="5">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>7746941</v>
       </c>
@@ -4018,8 +5949,11 @@
       <c r="C296" s="5">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>7746939</v>
       </c>
@@ -4029,8 +5963,11 @@
       <c r="C297" s="5">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>7746940</v>
       </c>
@@ -4040,8 +5977,11 @@
       <c r="C298" s="5">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>7825309</v>
       </c>
@@ -4051,8 +5991,11 @@
       <c r="C299" s="5">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>7825310</v>
       </c>
@@ -4062,8 +6005,11 @@
       <c r="C300" s="5">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>7825308</v>
       </c>
@@ -4073,8 +6019,11 @@
       <c r="C301" s="5">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>7833809</v>
       </c>
@@ -4084,8 +6033,11 @@
       <c r="C302" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>7825311</v>
       </c>
@@ -4095,8 +6047,11 @@
       <c r="C303" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>1106127</v>
       </c>
@@ -4106,8 +6061,11 @@
       <c r="C304" s="5">
         <v>86.7</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>1106941</v>
       </c>
@@ -4117,8 +6075,11 @@
       <c r="C305" s="5">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>1106124</v>
       </c>
@@ -4128,8 +6089,11 @@
       <c r="C306" s="5">
         <v>140.69999999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>1106942</v>
       </c>
@@ -4139,8 +6103,11 @@
       <c r="C307" s="5">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>1106125</v>
       </c>
@@ -4150,8 +6117,11 @@
       <c r="C308" s="5">
         <v>93.8</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>1106126</v>
       </c>
@@ -4161,8 +6131,11 @@
       <c r="C309" s="5">
         <v>86.7</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" s="16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>1106123</v>
       </c>
@@ -4172,8 +6145,11 @@
       <c r="C310" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>7779307</v>
       </c>
@@ -4183,8 +6159,11 @@
       <c r="C311" s="5">
         <v>119.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>7779317</v>
       </c>
@@ -4194,8 +6173,11 @@
       <c r="C312" s="5">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" s="16" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>4835457</v>
       </c>
@@ -4205,8 +6187,11 @@
       <c r="C313" s="5">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" s="16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>7779306</v>
       </c>
@@ -4216,8 +6201,11 @@
       <c r="C314" s="5">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>7795352</v>
       </c>
@@ -4227,8 +6215,11 @@
       <c r="C315" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" s="16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>1115152</v>
       </c>
@@ -4238,8 +6229,11 @@
       <c r="C316" s="5">
         <v>284.7</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>7766641</v>
       </c>
@@ -4249,8 +6243,11 @@
       <c r="C317" s="5">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>1115151</v>
       </c>
@@ -4260,8 +6257,11 @@
       <c r="C318" s="5">
         <v>197.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>1115158</v>
       </c>
@@ -4271,8 +6271,11 @@
       <c r="C319" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" s="16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>1033131</v>
       </c>
@@ -4282,8 +6285,11 @@
       <c r="C320" s="5">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>4105658</v>
       </c>
@@ -4293,8 +6299,11 @@
       <c r="C321" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" s="16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>7231004</v>
       </c>
@@ -4304,8 +6313,11 @@
       <c r="C322" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>7223559</v>
       </c>
@@ -4315,8 +6327,11 @@
       <c r="C323" s="5">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>6826043</v>
       </c>
@@ -4326,8 +6341,11 @@
       <c r="C324" s="5">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>7239023</v>
       </c>
@@ -4337,8 +6355,11 @@
       <c r="C325" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>6112208</v>
       </c>
@@ -4348,8 +6369,11 @@
       <c r="C326" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>5361984</v>
       </c>
@@ -4359,8 +6383,11 @@
       <c r="C327" s="5">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>6981074</v>
       </c>
@@ -4370,8 +6397,11 @@
       <c r="C328" s="5">
         <v>22.55</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>2536532</v>
       </c>
@@ -4381,8 +6411,11 @@
       <c r="C329" s="5">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>6767458</v>
       </c>
@@ -4392,8 +6425,11 @@
       <c r="C330" s="5">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>7809466</v>
       </c>
@@ -4403,8 +6439,11 @@
       <c r="C331" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>7825337</v>
       </c>
@@ -4414,8 +6453,11 @@
       <c r="C332" s="5">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>4764042</v>
       </c>
@@ -4425,8 +6467,11 @@
       <c r="C333" s="2">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>7788516</v>
       </c>
@@ -4436,8 +6481,11 @@
       <c r="C334" s="2">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>7788518</v>
       </c>
@@ -4447,8 +6495,11 @@
       <c r="C335" s="2">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>3674638</v>
       </c>
@@ -4458,8 +6509,11 @@
       <c r="C336" s="2">
         <v>194</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>7743777</v>
       </c>
@@ -4469,8 +6523,11 @@
       <c r="C337" s="2">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>7771627</v>
       </c>
@@ -4480,8 +6537,11 @@
       <c r="C338" s="2">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>7771614</v>
       </c>
@@ -4491,8 +6551,11 @@
       <c r="C339" s="2">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" s="17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>7751569</v>
       </c>
@@ -4502,8 +6565,11 @@
       <c r="C340" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>7743774</v>
       </c>
@@ -4513,8 +6579,11 @@
       <c r="C341" s="2">
         <v>132.30000000000001</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>6675816</v>
       </c>
@@ -4524,8 +6593,11 @@
       <c r="C342" s="2">
         <v>76.45</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" s="17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>7784378</v>
       </c>
@@ -4535,8 +6607,11 @@
       <c r="C343" s="2">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>1038785</v>
       </c>
@@ -4546,8 +6621,11 @@
       <c r="C344" s="2">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>1038786</v>
       </c>
@@ -4557,8 +6635,11 @@
       <c r="C345" s="2">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>7743776</v>
       </c>
@@ -4568,8 +6649,11 @@
       <c r="C346" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" s="17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>7743778</v>
       </c>
@@ -4579,8 +6663,11 @@
       <c r="C347" s="2">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>7743775</v>
       </c>
@@ -4590,8 +6677,11 @@
       <c r="C348" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>7771626</v>
       </c>
@@ -4601,8 +6691,11 @@
       <c r="C349" s="2">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>7809437</v>
       </c>
@@ -4612,8 +6705,11 @@
       <c r="C350" s="2">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>1116231</v>
       </c>
@@ -4623,8 +6719,11 @@
       <c r="C351" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
